--- a/kinase-expression-constructs/additional-constructs/collab-kinases.xlsx
+++ b/kinase-expression-constructs/additional-constructs/collab-kinases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>AGC</t>
   </si>
@@ -50,6 +50,9 @@
     <t>C10</t>
   </si>
   <si>
+    <t>CGGATCCTGAAAGAGACGGAGCTGAGGAAGGTGAAGGTGCTTGGATCTGGCGCTTTTGGCACAGTCTACAAGGGCATCTGGATCCCTGATGGGGAGAATGTGAAAATTCCAGTGGCCATCAAAGTGTTGAGGGAAAACACATCCCCCAAAGCCAACAAAGAAATCTTAGACGAAGCATACGTGATGGCTGGTGTGGGCTCCCCATATGTCTCCCGCCTTCTGGGCATCTGCCTGACATCCACGGTGCAGCTGGTGACACAGCTTATGCCCTATGGCTGCCTCTTAGACCATGTCCGGGAAAACCGCGGACGCCTGGGCTCCCAGGACCTGCTGAACTGGTGTATGCAGATTGCCAAGGGGATGAGCTACCTGGAGGATGTGCGGCTCGTACACAGGGACTTGGCCGCTCGGAACGTGCTGGTCAAGAGTCCCAACCATGTCAAAATTACAGACTTCGGGCTGGCTCGGCTGCTGGACATTGACGAGACAGAGTACCATGCAGATGGGGGCAAGGTGCCCATCAAGTGGATGGCGCTGGAGTCCATTCTCCGCCGGCGGTTCACCCACCAGAGTGATGTGTGGAGTTATGGTGTGACTGTGTGGGAGCTGATGACTTTTGGGGCCAAACCTTACGATGGGATCCCAGCCCGGGAGATCCCTGACCTGCTGGAAAAGGGGGAGCGGCTGCCCCAGCCCCCCATCTGCACCATTGATGTCTACATGATCATGGTCAAATGTTGGATGATTGACTCTGAATGTCGGCCAAGATTCCGGGAGTTGGTGTCTGAATTCTCCCGCATGGCCAGGGACCCCCAGCGCTTTGTGGTCATCCAGAATGAGGACTTGGGCCCAGCCAGTCCCTTGGACAGCACCTTCTACCGCTCACTGCTGGAGGACGATGACATGGGGGACCTGGTGGATGCTGAGGAGTATCTGGTACCCCAGCAG</t>
+  </si>
+  <si>
     <t>CTGGACCGAAAGCTGCTGACGCTGGAAGACAAAGAACTGGGCTCTGGTAATTTTGGAACTGTGAAAAAGGGCTACTACCAAATGAAAAAAGTTGTGAAAACCGTGGCTGTGAAAATACTGAAAAACGAGGCCAATGACCCCGCTCTTAAAGATGAGTTATTAGCAGAAGCAAATGTCATGCAGCAGCTGGACAACCCGTACATCGTGCGGATGATCGGGATATGCGAGGCCGAGTCCTGGATGCTGGTTATGGAGATGGCAGAACTTGGTCCCCTCAATAAGTATTTGCAGCAGAACAGACATGTCAAGGATAAGAACATCATAGAACTGGTTCATCAGGTTTCCATGGGCATGAAGTACTTGGAGGAGAGCAATTTTGTGCACAGAGATCTGGCTGCAAGAAATGTGTTGCTAGTTACCCAACATTACGCCAAGATCAGTGATTTCGGACTTTCCAAAGCACTGCGTGCTGATGAAAACTACTACAAGGCCCAGACCCATGGAAAGTGGCCTGTCAAGTGGTACGCTCCGGAATGCATCAACTACTACAAGTTCTCCAGCAAAAGCGATGTCTGGAGCTTTGGAGTGTTGATGTGGGAAGCATTCTCCTATGGGCAGAAGCCATATCGAGGGATGAAAGGAAGTGAAGTCACCGCTATGTTAGAGAAAGGAGAGCGGATGGGGTGCCCTGCAGGGTGTCCAAGAGAGATGTACGATCTCATGAATCTGTGCTGGACATACGATGTGGAAAACAGGCCCGGATTCGCAGCAGTGGAACTGCGGCTGCGCAATTACTACTATGACGTGGTGAAC</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
     <t>Lambda</t>
   </si>
   <si>
-    <t>MELAALCRWGLLLALLPPGAASTQVCTGTDMKLRLPASPETHLDMLRHLYQGCQVVQGNLELTYLPTNASLSFLQDIQEVQGYVLIAHNQVRQVPLQRLRIVRGTQLFEDNYALAVLDNGDPLNNTTPVTGASPGGLRELQLRSLTEILKGGVLIQRNPQLCYQDTILWKDIFHKNNQLALTLIDTNRSRACHPCSPMCKGSRCWGESSEDCQSLTRTVCAGGCARCKGPLPTDCCHEQCAAGCTGPKHSDCLACLHFNHSGICELHCPALVTYNTDTFESMPNPEGRYTFGASCVTACPYNYLSTDVGSCTLVCPLHNQEVTAEDGTQRCEKCSKPCARVCYGLGMEHLREVRAVTSANIQEFAGCKKIFGSLAFLPESFDGDPASNTAPLQPEQLQVFETLEEITGYLYISAWPDSLPDLSVFQNLQVIRGRILHNGAYSLTLQGLGISWLGLRSLRELGSGLALIHHNTHLCFVHTVPWDQLFRNPHQALLHTANRPEDECVGEGLACHQLCARGHCWGPGPTQCVNCSQFLRGQECVEECRVLQGLPREYVNARHCLPCHPECQPQNGSVTCFGPEADQCVACAHYKDPPFCVARCPSGVKPDLSYMPIWKFPDEEGACQPCPINCTHSCVDLDDKGCPAEQRASPLTSIISAVVGILLVVVLGVVFGILIKRRQQKIRKYTMRRLLQETELVEPLTPSGAMPNQAQMRILKETELRKVKVLGSGAFGTVYKGIWIPDGENVKIPVAIKVLRENTSPKANKEILDEAYVMAGVGSPYVSRLLGICLTSTVQLVTQLMPYGCLLDHVRENRGRLGSQDLLNWCMQIAKGMSYLEDVRLVHRDLAARNVLVKSPNHVKITDFGLARLLDIDETEYHADGGKVPIKWMALESILRRRFTHQSDVWSYGVTVWELMTFGAKPYDGIPAREIPDLLEKGERLPQPPICTIDVYMIMVKCWMIDSECRPRFRELVSEFSRMARDPQRFVVIQNEDLGPASPLDSTFYRSLLEDDDMGDLVDAEEYLVPQQGFFCPDPAPGAGGMVHHRHRSSSTRSGGGDLTLGLEPSEEEAPRSPLAPSEGAGSDVFDGDLGMGAAKGLQSLPTHDPSPLQRYSEDPTVPLPSETDGYVAPLTCSPQPEYVNQPDVRPQPPSPREGPLPAARPAGATLERPKTLSPGKNGVVKDVFAFGGAVENPEYLTPQGGAAPQPHPPPAFSPAFDNLYYWDQDPPERGAPPSTFKGTPTAENPEYLGLDVPV</t>
-  </si>
-  <si>
     <t>MP2K1_HUMAN_D0</t>
   </si>
   <si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>PDPK1_HUMAN_D0</t>
+  </si>
+  <si>
+    <t>RILKETELRKVKVLGSGAFGTVYKGIWIPDGENVKIPVAIKVLRENTSPKANKEILDEAYVMAGVGSPYVSRLLGICLTSTVQLVTQLMPYGCLLDHVRENRGRLGSQDLLNWCMQIAKGMSYLEDVRLVHRDLAARNVLVKSPNHVKITDFGLARLLDIDETEYHADGGKVPIKWMALESILRRRFTHQSDVWSYGVTVWELMTFGAKPYDGIPAREIPDLLEKGERLPQPPICTIDVYMIMVKCWMIDSECRPRFRELVSEFSRMARDPQRFVVIQNEDLGPASPLDSTFYRSLLEDDDMGDLVDAEEYLVPQQ</t>
   </si>
   <si>
     <t>STE</t>
@@ -517,46 +520,46 @@
   <sheetData>
     <row spans="1:14" r="1">
       <c t="s" r="A1">
+        <v>46</v>
+      </c>
+      <c t="s" r="B1">
+        <v>40</v>
+      </c>
+      <c t="s" r="C1">
+        <v>44</v>
+      </c>
+      <c t="s" r="D1">
+        <v>43</v>
+      </c>
+      <c t="s" r="E1">
         <v>45</v>
       </c>
-      <c t="s" r="B1">
+      <c t="s" r="F1">
+        <v>47</v>
+      </c>
+      <c t="s" r="G1">
+        <v>42</v>
+      </c>
+      <c t="s" r="H1">
+        <v>34</v>
+      </c>
+      <c t="s" r="I1">
+        <v>33</v>
+      </c>
+      <c t="s" r="J1">
         <v>39</v>
       </c>
-      <c t="s" r="C1">
-        <v>43</v>
-      </c>
-      <c t="s" r="D1">
-        <v>42</v>
-      </c>
-      <c t="s" r="E1">
-        <v>44</v>
-      </c>
-      <c t="s" r="F1">
-        <v>46</v>
-      </c>
-      <c t="s" r="G1">
+      <c t="s" r="K1">
+        <v>38</v>
+      </c>
+      <c t="s" r="L1">
+        <v>36</v>
+      </c>
+      <c t="s" r="M1">
+        <v>37</v>
+      </c>
+      <c t="s" r="N1">
         <v>41</v>
-      </c>
-      <c t="s" r="H1">
-        <v>33</v>
-      </c>
-      <c t="s" r="I1">
-        <v>32</v>
-      </c>
-      <c t="s" r="J1">
-        <v>38</v>
-      </c>
-      <c t="s" r="K1">
-        <v>37</v>
-      </c>
-      <c t="s" r="L1">
-        <v>35</v>
-      </c>
-      <c t="s" r="M1">
-        <v>36</v>
-      </c>
-      <c t="s" r="N1">
-        <v>40</v>
       </c>
     </row>
     <row spans="1:14" r="2">
@@ -564,10 +567,10 @@
         <v>9</v>
       </c>
       <c t="s" r="B2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="C2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="n" r="D2">
         <v>23918</v>
@@ -576,10 +579,10 @@
         <v>6</v>
       </c>
       <c t="s" r="F2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="G2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="n" r="H2">
         <v>397</v>
@@ -594,7 +597,7 @@
         <v>1977</v>
       </c>
       <c t="s" r="L2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c t="s" r="M2">
         <v>7</v>
@@ -611,19 +614,19 @@
         <v>0</v>
       </c>
       <c t="s" r="C3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="E3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="F3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c t="s" r="G3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="n" r="H3">
         <v>48</v>
@@ -638,10 +641,10 @@
         <v>1077</v>
       </c>
       <c t="s" r="L3">
+        <v>18</v>
+      </c>
+      <c t="s" r="M3">
         <v>17</v>
-      </c>
-      <c t="s" r="M3">
-        <v>16</v>
       </c>
       <c t="s" r="N3">
         <v>5</v>
@@ -649,13 +652,13 @@
     </row>
     <row spans="1:14" r="4">
       <c t="s" r="A4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c t="s" r="B4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="C4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="n" r="D4">
         <v>23888</v>
@@ -667,25 +670,25 @@
         <v>8</v>
       </c>
       <c t="s" r="G4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="n" r="H4">
-        <v>1</v>
+        <v>713</v>
       </c>
       <c t="n" r="I4">
-        <v>1255</v>
+        <v>1028</v>
       </c>
       <c t="n" r="J4">
-        <v>1</v>
+        <v>2137</v>
       </c>
       <c t="n" r="K4">
-        <v>3765</v>
+        <v>3084</v>
       </c>
       <c t="s" r="L4">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c t="s" r="M4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c t="s" r="N4">
         <v>3</v>
@@ -696,10 +699,10 @@
         <v>26</v>
       </c>
       <c t="s" r="B5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="C5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="n" r="D5">
         <v>23406</v>
@@ -708,10 +711,10 @@
         <v>1</v>
       </c>
       <c t="s" r="F5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="G5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="n" r="H5">
         <v>1</v>
@@ -737,13 +740,13 @@
     </row>
     <row spans="1:14" r="6">
       <c t="s" r="A6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="B6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="C6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="n" r="D6">
         <v>23907</v>
@@ -755,7 +758,7 @@
         <v>10</v>
       </c>
       <c t="s" r="G6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="n" r="H6">
         <v>365</v>
@@ -770,10 +773,10 @@
         <v>1905</v>
       </c>
       <c t="s" r="L6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="M6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c t="s" r="N6">
         <v>4</v>
